--- a/WebApplication1/TempArchivos/EXCEL_CONDUCTOR_EN_RED.xlsx
+++ b/WebApplication1/TempArchivos/EXCEL_CONDUCTOR_EN_RED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Desktop\SOLUINFO-CONDUCTORENRED\ConductorEnRedPoryecto80\Tesis_Final\WebApplication1\TempArchivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6525E9-3157-4100-9C4B-EDFBD554C6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307E1D1B-BD67-4709-807F-669587AA5283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB6288AE-06AE-465F-8E9E-6F28D11CD07E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FECHA INICIO</t>
   </si>
@@ -48,9 +48,6 @@
     <t>NOMBRE TERMINAL INICIO</t>
   </si>
   <si>
-    <t>LO MARCOLETA</t>
-  </si>
-  <si>
     <t>APELLIDO PATERNO</t>
   </si>
   <si>
@@ -61,21 +58,6 @@
   </si>
   <si>
     <t>JORNADA</t>
-  </si>
-  <si>
-    <t>UNO</t>
-  </si>
-  <si>
-    <t>DOS</t>
-  </si>
-  <si>
-    <t>17459567-4</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>SOTO</t>
   </si>
 </sst>
 </file>
@@ -439,7 +421,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,13 +436,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -469,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -479,280 +461,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44502</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.21180555555555555</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44503</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.21527777777777779</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44504</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.21875</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44505</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.22222222222222199</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44506</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.225694444444444</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>44507</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.22916666666666699</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>44508</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.23263888888888901</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>44509</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.23611111111111099</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>44510</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.23958333333333301</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>44511</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.243055555555555</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>44512</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.24652777777777801</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44513</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
